--- a/Revisions/Supplementary_Files/Supplementary_File_1/excel files/Supplementary_File_1_Table_1_Gsp1_partner_annotation.xlsx
+++ b/Revisions/Supplementary_Files/Supplementary_File_1/excel files/Supplementary_File_1_Table_1_Gsp1_partner_annotation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tperica/Box Sync/kortemmelab/home/tina/Gsp1_manuscript/Revisions/Supplementary_Files/Supplementary_File_1/excel files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B48F896-CC17-2849-9D20-44306B8AFFFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D32042-F447-5A4C-8107-B8329614B5F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="16260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="16240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,9 +205,6 @@
   </si>
   <si>
     <t>Importin subunit beta-3 - receptor for cNLS and rg-NLS</t>
-  </si>
-  <si>
-    <t>Exportin and importin or proteins and tRNA</t>
   </si>
   <si>
     <t>Importin alpha re-exporter - export receptor for Srp1</t>
@@ -277,6 +274,9 @@
       </rPr>
       <t>partner</t>
     </r>
+  </si>
+  <si>
+    <t>Exportin and importin of proteins and tRNA</t>
   </si>
 </sst>
 </file>
@@ -1032,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="2" spans="1:9" ht="59" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1074,11 +1074,11 @@
         <v>28</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -1491,7 +1491,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>24</v>
@@ -1520,7 +1520,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>13</v>
@@ -1549,7 +1549,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>

--- a/Revisions/Supplementary_Files/Supplementary_File_1/excel files/Supplementary_File_1_Table_1_Gsp1_partner_annotation.xlsx
+++ b/Revisions/Supplementary_Files/Supplementary_File_1/excel files/Supplementary_File_1_Table_1_Gsp1_partner_annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tperica/Box Sync/kortemmelab/home/tina/Gsp1_manuscript/Revisions/Supplementary_Files/Supplementary_File_1/excel files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D32042-F447-5A4C-8107-B8329614B5F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DF5356-9EF5-5D48-80BD-DAF6134E7F8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="16240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1032,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1063,7 +1063,7 @@
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:9" ht="59" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>58</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -1584,6 +1584,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;L&amp;"Times New Roman,Bold"&amp;14Supplementary Tables </oddHeader>
+  </headerFooter>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
